--- a/s2cDNASample/s2CDNASample_hbrown_08.19.19.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_08.19.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58990D-B734-5844-B2AF-E61DE21AD0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE565DA9-E69B-2643-825E-6DEB3328E78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="12">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -59,15 +59,15 @@
   <si>
     <t>08.19.19</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -96,6 +96,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,8 +133,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +508,7 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -510,7 +517,7 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -522,8 +529,8 @@
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="b">
-        <v>0</v>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -548,7 +555,7 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -557,7 +564,7 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -569,12 +576,12 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -583,7 +590,7 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -595,12 +602,12 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="b">
-        <v>0</v>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -609,7 +616,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -621,12 +628,12 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -635,7 +642,7 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -647,12 +654,12 @@
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -661,7 +668,7 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -673,12 +680,12 @@
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="5" t="b">
-        <v>0</v>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -687,7 +694,7 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -699,12 +706,12 @@
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="5" t="b">
-        <v>0</v>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -713,7 +720,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -725,12 +732,12 @@
       <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
+      <c r="H9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -739,7 +746,7 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -751,12 +758,12 @@
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <v>0</v>
+      <c r="H10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -765,7 +772,7 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -777,12 +784,12 @@
       <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="5" t="b">
-        <v>0</v>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -791,7 +798,7 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -803,12 +810,12 @@
       <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="5" t="b">
-        <v>0</v>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -817,7 +824,7 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -829,12 +836,12 @@
       <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="5" t="b">
-        <v>0</v>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -843,7 +850,7 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -855,12 +862,12 @@
       <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -869,7 +876,7 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -881,12 +888,12 @@
       <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -895,7 +902,7 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -907,12 +914,12 @@
       <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="5" t="b">
-        <v>0</v>
+      <c r="H16" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -921,7 +928,7 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -933,12 +940,12 @@
       <c r="G17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -947,7 +954,7 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -959,12 +966,12 @@
       <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="5" t="b">
-        <v>0</v>
+      <c r="H18" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -973,7 +980,7 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -985,12 +992,12 @@
       <c r="G19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="5" t="b">
-        <v>0</v>
+      <c r="H19" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -999,7 +1006,7 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1011,12 +1018,12 @@
       <c r="G20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="5" t="b">
-        <v>0</v>
+      <c r="H20" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1025,7 +1032,7 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1037,12 +1044,12 @@
       <c r="G21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="5" t="b">
-        <v>0</v>
+      <c r="H21" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1051,7 +1058,7 @@
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1063,12 +1070,12 @@
       <c r="G22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="5" t="b">
-        <v>0</v>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1077,7 +1084,7 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1089,12 +1096,12 @@
       <c r="G23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="5" t="b">
-        <v>0</v>
+      <c r="H23" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1103,7 +1110,7 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1115,12 +1122,12 @@
       <c r="G24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="5" t="b">
-        <v>0</v>
+      <c r="H24" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1129,7 +1136,7 @@
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1141,12 +1148,12 @@
       <c r="G25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="5" t="b">
-        <v>0</v>
+      <c r="H25" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1155,7 +1162,7 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1167,12 +1174,12 @@
       <c r="G26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="5" t="b">
-        <v>0</v>
+      <c r="H26" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1181,7 +1188,7 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1193,9 +1200,24 @@
       <c r="G27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="H27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/s2cDNASample/s2CDNASample_hbrown_08.19.19.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_08.19.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE565DA9-E69B-2643-825E-6DEB3328E78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C41DBA-DFE8-8546-857A-9C0CFEC9B58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11920" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
@@ -614,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
@@ -666,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>10</v>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -796,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -822,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
@@ -848,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>10</v>
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>10</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>10</v>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>10</v>
@@ -952,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
@@ -978,7 +978,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>10</v>
@@ -1030,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>10</v>
@@ -1082,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>10</v>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>10</v>
@@ -1134,7 +1134,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>10</v>
@@ -1160,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>10</v>
@@ -1186,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>10</v>
